--- a/data/pca/factorExposure/factorExposure_2011-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01288914148532293</v>
+        <v>-0.01308353332078769</v>
       </c>
       <c r="C2">
-        <v>0.03278907382834581</v>
+        <v>0.02475831556546207</v>
       </c>
       <c r="D2">
-        <v>0.01863838131378236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02382641785028898</v>
+      </c>
+      <c r="E2">
+        <v>-0.0117998449291378</v>
+      </c>
+      <c r="F2">
+        <v>0.02892199353319089</v>
+      </c>
+      <c r="G2">
+        <v>0.001934349434384105</v>
+      </c>
+      <c r="H2">
+        <v>-0.02154612918072251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07562515488895631</v>
+        <v>-0.08919093612834074</v>
       </c>
       <c r="C4">
-        <v>0.05470521638056047</v>
+        <v>0.03468305162807978</v>
       </c>
       <c r="D4">
-        <v>0.0755022304705034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06990875692895246</v>
+      </c>
+      <c r="E4">
+        <v>-0.009907551954600019</v>
+      </c>
+      <c r="F4">
+        <v>0.03836989472829464</v>
+      </c>
+      <c r="G4">
+        <v>0.01235937149494584</v>
+      </c>
+      <c r="H4">
+        <v>0.04006949756375502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1105564577856686</v>
+        <v>-0.1246601711223643</v>
       </c>
       <c r="C6">
-        <v>0.055042416025498</v>
+        <v>0.0398316218149447</v>
       </c>
       <c r="D6">
-        <v>0.004713624531199787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01101152964351169</v>
+      </c>
+      <c r="E6">
+        <v>0.02876939134285517</v>
+      </c>
+      <c r="F6">
+        <v>0.04714433816436196</v>
+      </c>
+      <c r="G6">
+        <v>0.00636883265105148</v>
+      </c>
+      <c r="H6">
+        <v>-0.1099835473028191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05472292579210635</v>
+        <v>-0.06438881762839369</v>
       </c>
       <c r="C7">
-        <v>0.03237957774723071</v>
+        <v>0.01532534704693932</v>
       </c>
       <c r="D7">
-        <v>0.0309654757366187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04959192873803463</v>
+      </c>
+      <c r="E7">
+        <v>-0.03339841356477303</v>
+      </c>
+      <c r="F7">
+        <v>0.04155651355662409</v>
+      </c>
+      <c r="G7">
+        <v>-0.02648208020896003</v>
+      </c>
+      <c r="H7">
+        <v>0.01293028834039925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0391581687258527</v>
+        <v>-0.04287511073731576</v>
       </c>
       <c r="C8">
-        <v>0.0132191837976185</v>
+        <v>0.008515871925598635</v>
       </c>
       <c r="D8">
-        <v>0.06536147219881895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02607675879621663</v>
+      </c>
+      <c r="E8">
+        <v>-0.01254288080528739</v>
+      </c>
+      <c r="F8">
+        <v>0.06849935709903614</v>
+      </c>
+      <c r="G8">
+        <v>0.0752269716423213</v>
+      </c>
+      <c r="H8">
+        <v>-0.02479956334746456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0703006729094121</v>
+        <v>-0.08025439028902855</v>
       </c>
       <c r="C9">
-        <v>0.03970798556762554</v>
+        <v>0.02119473765521895</v>
       </c>
       <c r="D9">
-        <v>0.07121820817159553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06429996060539647</v>
+      </c>
+      <c r="E9">
+        <v>-0.02295925635588913</v>
+      </c>
+      <c r="F9">
+        <v>0.03275771640285014</v>
+      </c>
+      <c r="G9">
+        <v>0.02693193643542924</v>
+      </c>
+      <c r="H9">
+        <v>0.04163947924398478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02691155600523997</v>
+        <v>-0.04595940991735786</v>
       </c>
       <c r="C10">
-        <v>0.02388119729336864</v>
+        <v>0.06466270025372513</v>
       </c>
       <c r="D10">
-        <v>-0.1709375951352099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1757180924008998</v>
+      </c>
+      <c r="E10">
+        <v>-0.04106374084028844</v>
+      </c>
+      <c r="F10">
+        <v>0.0483964562246298</v>
+      </c>
+      <c r="G10">
+        <v>-0.0371579897620867</v>
+      </c>
+      <c r="H10">
+        <v>-0.05486123566480627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0713403093835651</v>
+        <v>-0.07576036745930924</v>
       </c>
       <c r="C11">
-        <v>0.04407082835723686</v>
+        <v>0.01873160624155032</v>
       </c>
       <c r="D11">
-        <v>0.04889493793147416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0645333134898097</v>
+      </c>
+      <c r="E11">
+        <v>0.0007030080524867155</v>
+      </c>
+      <c r="F11">
+        <v>0.03297799876407568</v>
+      </c>
+      <c r="G11">
+        <v>0.05204573148163919</v>
+      </c>
+      <c r="H11">
+        <v>0.05983751144860776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06061109093476792</v>
+        <v>-0.06947561116723031</v>
       </c>
       <c r="C12">
-        <v>0.05337919250979887</v>
+        <v>0.03172693819762508</v>
       </c>
       <c r="D12">
-        <v>0.04343012906403843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05252449031351937</v>
+      </c>
+      <c r="E12">
+        <v>-0.01167883752110493</v>
+      </c>
+      <c r="F12">
+        <v>0.02231842416902289</v>
+      </c>
+      <c r="G12">
+        <v>0.02785309606438763</v>
+      </c>
+      <c r="H12">
+        <v>0.02957886471430362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06814114958709047</v>
+        <v>-0.06916782182299838</v>
       </c>
       <c r="C13">
-        <v>0.03534404731201196</v>
+        <v>0.0168476917523627</v>
       </c>
       <c r="D13">
-        <v>0.04229167035474674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03710821657668541</v>
+      </c>
+      <c r="E13">
+        <v>-0.004858171645821826</v>
+      </c>
+      <c r="F13">
+        <v>0.02416946175114068</v>
+      </c>
+      <c r="G13">
+        <v>0.02276202638566267</v>
+      </c>
+      <c r="H13">
+        <v>0.04833355064879446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03216503151037239</v>
+        <v>-0.04069202349902554</v>
       </c>
       <c r="C14">
-        <v>0.033317565693209</v>
+        <v>0.0281427673180104</v>
       </c>
       <c r="D14">
-        <v>-0.007517478108723816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01424270674867097</v>
+      </c>
+      <c r="E14">
+        <v>-0.025692080473588</v>
+      </c>
+      <c r="F14">
+        <v>0.01424113227318423</v>
+      </c>
+      <c r="G14">
+        <v>0.01957631893405115</v>
+      </c>
+      <c r="H14">
+        <v>0.05906685524455103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04103888904750072</v>
+        <v>-0.04031756541613489</v>
       </c>
       <c r="C15">
-        <v>0.0105808224275224</v>
+        <v>0.002756514671055592</v>
       </c>
       <c r="D15">
-        <v>0.02315297981535444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009602633121418095</v>
+      </c>
+      <c r="E15">
+        <v>-0.03462863646331804</v>
+      </c>
+      <c r="F15">
+        <v>0.003040129696321179</v>
+      </c>
+      <c r="G15">
+        <v>0.03051838407163827</v>
+      </c>
+      <c r="H15">
+        <v>0.02591424318525194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05929742752835081</v>
+        <v>-0.07074873667197223</v>
       </c>
       <c r="C16">
-        <v>0.04247689865361924</v>
+        <v>0.02241192430673885</v>
       </c>
       <c r="D16">
-        <v>0.05205268179204178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06445855841377918</v>
+      </c>
+      <c r="E16">
+        <v>-0.00485859856036751</v>
+      </c>
+      <c r="F16">
+        <v>0.03002641633035315</v>
+      </c>
+      <c r="G16">
+        <v>0.02450892628379855</v>
+      </c>
+      <c r="H16">
+        <v>0.04759452465356765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06439631551986474</v>
+        <v>-0.06325297243230238</v>
       </c>
       <c r="C20">
-        <v>0.02774771104419143</v>
+        <v>0.007085007359246348</v>
       </c>
       <c r="D20">
-        <v>0.04507519159220297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03999273548307616</v>
+      </c>
+      <c r="E20">
+        <v>-0.005532423820495699</v>
+      </c>
+      <c r="F20">
+        <v>0.02726093476907765</v>
+      </c>
+      <c r="G20">
+        <v>0.01727700363080341</v>
+      </c>
+      <c r="H20">
+        <v>0.04433131785420117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03198419445326316</v>
+        <v>-0.02884540897333474</v>
       </c>
       <c r="C21">
-        <v>0.003686479956037683</v>
+        <v>-0.007120094891721287</v>
       </c>
       <c r="D21">
-        <v>0.01582605142442168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01976631815549652</v>
+      </c>
+      <c r="E21">
+        <v>-0.03964616333370461</v>
+      </c>
+      <c r="F21">
+        <v>-0.01558514019772772</v>
+      </c>
+      <c r="G21">
+        <v>0.00349943654429438</v>
+      </c>
+      <c r="H21">
+        <v>-0.04778746261041081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07946179346346043</v>
+        <v>-0.07076982417998189</v>
       </c>
       <c r="C22">
-        <v>0.06131418817515868</v>
+        <v>0.02485614316400301</v>
       </c>
       <c r="D22">
-        <v>0.153740168305255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1115366956150076</v>
+      </c>
+      <c r="E22">
+        <v>-0.6089075012742304</v>
+      </c>
+      <c r="F22">
+        <v>-0.06320832496156352</v>
+      </c>
+      <c r="G22">
+        <v>-0.1749478932394014</v>
+      </c>
+      <c r="H22">
+        <v>-0.131647272844991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08050481375035681</v>
+        <v>-0.07168645726888194</v>
       </c>
       <c r="C23">
-        <v>0.05983328229396548</v>
+        <v>0.02333164070400413</v>
       </c>
       <c r="D23">
-        <v>0.1549616267602553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1125243423193211</v>
+      </c>
+      <c r="E23">
+        <v>-0.6110040865632133</v>
+      </c>
+      <c r="F23">
+        <v>-0.06253729619555677</v>
+      </c>
+      <c r="G23">
+        <v>-0.1692444800610713</v>
+      </c>
+      <c r="H23">
+        <v>-0.1273891023141157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07778978906895259</v>
+        <v>-0.08133553616372816</v>
       </c>
       <c r="C24">
-        <v>0.05570764407858046</v>
+        <v>0.02839233184899355</v>
       </c>
       <c r="D24">
-        <v>0.05468091196549246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06378750204850972</v>
+      </c>
+      <c r="E24">
+        <v>-0.01260250099593183</v>
+      </c>
+      <c r="F24">
+        <v>0.037135993210885</v>
+      </c>
+      <c r="G24">
+        <v>0.04053828388720541</v>
+      </c>
+      <c r="H24">
+        <v>0.03071080948100661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07494448625939935</v>
+        <v>-0.07938752191197096</v>
       </c>
       <c r="C25">
-        <v>0.0565391188836495</v>
+        <v>0.03177552675233381</v>
       </c>
       <c r="D25">
-        <v>0.05982064888528182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05631055713577698</v>
+      </c>
+      <c r="E25">
+        <v>-0.01439726171886322</v>
+      </c>
+      <c r="F25">
+        <v>0.03288519379362305</v>
+      </c>
+      <c r="G25">
+        <v>0.04891435530848766</v>
+      </c>
+      <c r="H25">
+        <v>0.03909097468094992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04646262952856951</v>
+        <v>-0.04563923403503035</v>
       </c>
       <c r="C26">
-        <v>0.01595294943279172</v>
+        <v>0.003090081290831291</v>
       </c>
       <c r="D26">
-        <v>0.008396975075361119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02167174399893657</v>
+      </c>
+      <c r="E26">
+        <v>-0.04061970054325865</v>
+      </c>
+      <c r="F26">
+        <v>0.0319641120922706</v>
+      </c>
+      <c r="G26">
+        <v>0.0166848724801408</v>
+      </c>
+      <c r="H26">
+        <v>0.04585152489161943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04392908620976831</v>
+        <v>-0.07059510287878649</v>
       </c>
       <c r="C28">
-        <v>0.06785000313059365</v>
+        <v>0.1269929025490018</v>
       </c>
       <c r="D28">
-        <v>-0.3072886946135801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2959037871845056</v>
+      </c>
+      <c r="E28">
+        <v>-0.04031136292394082</v>
+      </c>
+      <c r="F28">
+        <v>0.05459262579655186</v>
+      </c>
+      <c r="G28">
+        <v>0.02008485615611381</v>
+      </c>
+      <c r="H28">
+        <v>-0.0526786239943004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0444557746208884</v>
+        <v>-0.04719695673513558</v>
       </c>
       <c r="C29">
-        <v>0.03135528974415302</v>
+        <v>0.02216177758775373</v>
       </c>
       <c r="D29">
-        <v>0.004742851712658676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0142011268843444</v>
+      </c>
+      <c r="E29">
+        <v>-0.05466032922816417</v>
+      </c>
+      <c r="F29">
+        <v>0.01220571315109557</v>
+      </c>
+      <c r="G29">
+        <v>0.009966581518513861</v>
+      </c>
+      <c r="H29">
+        <v>0.07192230860375544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1291294935079681</v>
+        <v>-0.1271026097375439</v>
       </c>
       <c r="C30">
-        <v>0.09255687037745243</v>
+        <v>0.05342288749641457</v>
       </c>
       <c r="D30">
-        <v>0.1127146915531039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08446692613939973</v>
+      </c>
+      <c r="E30">
+        <v>-0.05654713433056648</v>
+      </c>
+      <c r="F30">
+        <v>0.01605612054853109</v>
+      </c>
+      <c r="G30">
+        <v>0.06222653019607376</v>
+      </c>
+      <c r="H30">
+        <v>-0.04563681873931613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04909323922761792</v>
+        <v>-0.04990524133309408</v>
       </c>
       <c r="C31">
-        <v>0.02518436574376308</v>
+        <v>0.009798104534844899</v>
       </c>
       <c r="D31">
-        <v>0.01940952955120459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03390489488934715</v>
+      </c>
+      <c r="E31">
+        <v>-0.02269148905056634</v>
+      </c>
+      <c r="F31">
+        <v>0.008867199024797974</v>
+      </c>
+      <c r="G31">
+        <v>0.0013381678928519</v>
+      </c>
+      <c r="H31">
+        <v>0.0691016845422487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03411982034917738</v>
+        <v>-0.03767597652057447</v>
       </c>
       <c r="C32">
-        <v>0.02277725558251429</v>
+        <v>0.02052406678887648</v>
       </c>
       <c r="D32">
-        <v>0.03233275056962345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01259200674193273</v>
+      </c>
+      <c r="E32">
+        <v>-0.04631364668582133</v>
+      </c>
+      <c r="F32">
+        <v>-0.001446234994246268</v>
+      </c>
+      <c r="G32">
+        <v>0.05200657082622179</v>
+      </c>
+      <c r="H32">
+        <v>0.01469094391229794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08647955544338677</v>
+        <v>-0.09505176972716524</v>
       </c>
       <c r="C33">
-        <v>0.04751525451187384</v>
+        <v>0.02339227577529383</v>
       </c>
       <c r="D33">
-        <v>0.04594871506057669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05034440065298792</v>
+      </c>
+      <c r="E33">
+        <v>-0.01320720225767851</v>
+      </c>
+      <c r="F33">
+        <v>0.001535577298389703</v>
+      </c>
+      <c r="G33">
+        <v>0.01149400502085856</v>
+      </c>
+      <c r="H33">
+        <v>0.06520933719061869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0599373968095791</v>
+        <v>-0.06542866363861734</v>
       </c>
       <c r="C34">
-        <v>0.02660652121469113</v>
+        <v>0.007045611448804688</v>
       </c>
       <c r="D34">
-        <v>0.04849073670733174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0500196607188851</v>
+      </c>
+      <c r="E34">
+        <v>-0.006369710003808256</v>
+      </c>
+      <c r="F34">
+        <v>0.02078350120988819</v>
+      </c>
+      <c r="G34">
+        <v>0.03448690843029485</v>
+      </c>
+      <c r="H34">
+        <v>0.04578107775724539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03648317597603635</v>
+        <v>-0.03840417059838826</v>
       </c>
       <c r="C35">
-        <v>0.01109648129722846</v>
+        <v>0.00367513402891902</v>
       </c>
       <c r="D35">
-        <v>0.02243965168252505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01666900007424005</v>
+      </c>
+      <c r="E35">
+        <v>-0.02317074384192473</v>
+      </c>
+      <c r="F35">
+        <v>-0.01754911057508559</v>
+      </c>
+      <c r="G35">
+        <v>-0.004194055924787699</v>
+      </c>
+      <c r="H35">
+        <v>0.033789037220932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02627900192760893</v>
+        <v>-0.02885776972176309</v>
       </c>
       <c r="C36">
-        <v>0.02058960354823416</v>
+        <v>0.01281155441862654</v>
       </c>
       <c r="D36">
-        <v>0.01841376788797229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02117864566296771</v>
+      </c>
+      <c r="E36">
+        <v>-0.03072369767587063</v>
+      </c>
+      <c r="F36">
+        <v>0.02818901764006777</v>
+      </c>
+      <c r="G36">
+        <v>0.01061161045191716</v>
+      </c>
+      <c r="H36">
+        <v>0.04736023194318593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04751124179877841</v>
+        <v>-0.04648004005582022</v>
       </c>
       <c r="C38">
-        <v>0.005551420607538553</v>
+        <v>-0.006417419919603341</v>
       </c>
       <c r="D38">
-        <v>0.01117683076157044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02116811670532796</v>
+      </c>
+      <c r="E38">
+        <v>-0.04898976755072693</v>
+      </c>
+      <c r="F38">
+        <v>-0.0018396161770417</v>
+      </c>
+      <c r="G38">
+        <v>0.004802821970543324</v>
+      </c>
+      <c r="H38">
+        <v>0.02055406522541569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09150840587204503</v>
+        <v>-0.1010256932701775</v>
       </c>
       <c r="C39">
-        <v>0.06682093510557022</v>
+        <v>0.04042996106946094</v>
       </c>
       <c r="D39">
-        <v>0.04955998333349937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0632826015907535</v>
+      </c>
+      <c r="E39">
+        <v>-0.003143033697527845</v>
+      </c>
+      <c r="F39">
+        <v>-0.0005504578981413742</v>
+      </c>
+      <c r="G39">
+        <v>0.05217497715663631</v>
+      </c>
+      <c r="H39">
+        <v>0.006634638524973283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08174427530024733</v>
+        <v>-0.06307538725980734</v>
       </c>
       <c r="C40">
-        <v>0.03861315169352048</v>
+        <v>0.00326690484873255</v>
       </c>
       <c r="D40">
-        <v>0.01316696111358239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03597398697857272</v>
+      </c>
+      <c r="E40">
+        <v>-0.03542386436632083</v>
+      </c>
+      <c r="F40">
+        <v>-0.03535190553190598</v>
+      </c>
+      <c r="G40">
+        <v>0.0594786314122577</v>
+      </c>
+      <c r="H40">
+        <v>-0.08289027071978357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04610948103754092</v>
+        <v>-0.04678350832080465</v>
       </c>
       <c r="C41">
-        <v>0.01348057508592426</v>
+        <v>-0.001587745769211862</v>
       </c>
       <c r="D41">
-        <v>0.03789106789210144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03392273021374188</v>
+      </c>
+      <c r="E41">
+        <v>-0.001081255923821403</v>
+      </c>
+      <c r="F41">
+        <v>-0.01371894606378679</v>
+      </c>
+      <c r="G41">
+        <v>0.009015396875997658</v>
+      </c>
+      <c r="H41">
+        <v>0.02835106628085958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05445360264695395</v>
+        <v>-0.06020118204390529</v>
       </c>
       <c r="C43">
-        <v>0.02907309598890222</v>
+        <v>0.01456946097055679</v>
       </c>
       <c r="D43">
-        <v>0.01132995292681914</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0323783849782986</v>
+      </c>
+      <c r="E43">
+        <v>-0.01833832682387598</v>
+      </c>
+      <c r="F43">
+        <v>0.01363461549793962</v>
+      </c>
+      <c r="G43">
+        <v>-0.01039104694050674</v>
+      </c>
+      <c r="H43">
+        <v>0.06716291196794538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09667583654880375</v>
+        <v>-0.09361200779406012</v>
       </c>
       <c r="C44">
-        <v>0.08319429030278416</v>
+        <v>0.04802399394645012</v>
       </c>
       <c r="D44">
-        <v>0.05958217014954801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06997573864656069</v>
+      </c>
+      <c r="E44">
+        <v>-0.07501654021813398</v>
+      </c>
+      <c r="F44">
+        <v>0.09503103140671755</v>
+      </c>
+      <c r="G44">
+        <v>0.0832731864400808</v>
+      </c>
+      <c r="H44">
+        <v>0.06986675926769338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02670130710604777</v>
+        <v>-0.03577160696992281</v>
       </c>
       <c r="C46">
-        <v>0.01798222781920458</v>
+        <v>0.01057444433859282</v>
       </c>
       <c r="D46">
-        <v>0.03409947518722559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03827742529243312</v>
+      </c>
+      <c r="E46">
+        <v>-0.02922711381335627</v>
+      </c>
+      <c r="F46">
+        <v>0.01353170054884761</v>
+      </c>
+      <c r="G46">
+        <v>-0.0008847962447517708</v>
+      </c>
+      <c r="H46">
+        <v>0.02957094977729176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03295432278905547</v>
+        <v>-0.04082484443254999</v>
       </c>
       <c r="C47">
-        <v>0.0235676800491247</v>
+        <v>0.01854022392736643</v>
       </c>
       <c r="D47">
-        <v>0.001239487477281073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009214641732905891</v>
+      </c>
+      <c r="E47">
+        <v>-0.04050606202686204</v>
+      </c>
+      <c r="F47">
+        <v>-0.008857804070553725</v>
+      </c>
+      <c r="G47">
+        <v>-0.0284755162570144</v>
+      </c>
+      <c r="H47">
+        <v>0.03196605188016261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03713459728668067</v>
+        <v>-0.04099941436355088</v>
       </c>
       <c r="C48">
-        <v>0.024764936041542</v>
+        <v>0.01458673008375137</v>
       </c>
       <c r="D48">
-        <v>0.02839781201845309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02023635728555365</v>
+      </c>
+      <c r="E48">
+        <v>-0.03794578323206699</v>
+      </c>
+      <c r="F48">
+        <v>0.01106344046012593</v>
+      </c>
+      <c r="G48">
+        <v>0.0221375999619527</v>
+      </c>
+      <c r="H48">
+        <v>0.02442854335200066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1647404928259371</v>
+        <v>-0.2002129745230918</v>
       </c>
       <c r="C49">
-        <v>0.05345349616672479</v>
+        <v>0.03313816979204685</v>
       </c>
       <c r="D49">
-        <v>0.001194066573181502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02638409829415103</v>
+      </c>
+      <c r="E49">
+        <v>0.166282467755661</v>
+      </c>
+      <c r="F49">
+        <v>0.04075779894810876</v>
+      </c>
+      <c r="G49">
+        <v>-0.1624860233901962</v>
+      </c>
+      <c r="H49">
+        <v>-0.2153473765027796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04317041099090665</v>
+        <v>-0.04570106966044488</v>
       </c>
       <c r="C50">
-        <v>0.02546364093373048</v>
+        <v>0.01168944405164622</v>
       </c>
       <c r="D50">
-        <v>0.03823849813576531</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04049911061220607</v>
+      </c>
+      <c r="E50">
+        <v>-0.0315404107253931</v>
+      </c>
+      <c r="F50">
+        <v>0.004765919433905868</v>
+      </c>
+      <c r="G50">
+        <v>0.002698267704571787</v>
+      </c>
+      <c r="H50">
+        <v>0.08168486831273539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02747072761140235</v>
+        <v>-0.0349672442624091</v>
       </c>
       <c r="C51">
-        <v>0.01032854638328611</v>
+        <v>0.00722435617951279</v>
       </c>
       <c r="D51">
-        <v>-0.004147078695771945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.00320557487408058</v>
+      </c>
+      <c r="E51">
+        <v>-0.01237681916397741</v>
+      </c>
+      <c r="F51">
+        <v>0.007811806092741834</v>
+      </c>
+      <c r="G51">
+        <v>-0.01646865888251172</v>
+      </c>
+      <c r="H51">
+        <v>-0.0241785916598708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1537914963741978</v>
+        <v>-0.1609712450890901</v>
       </c>
       <c r="C53">
-        <v>0.07573585277173274</v>
+        <v>0.04567790725203592</v>
       </c>
       <c r="D53">
-        <v>-0.004934787238550272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02637644025344132</v>
+      </c>
+      <c r="E53">
+        <v>0.03148489848874327</v>
+      </c>
+      <c r="F53">
+        <v>0.0002398765337748193</v>
+      </c>
+      <c r="G53">
+        <v>0.01922146781675925</v>
+      </c>
+      <c r="H53">
+        <v>0.2027449706032318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05884344671883089</v>
+        <v>-0.05786674632735733</v>
       </c>
       <c r="C54">
-        <v>0.02456489733592726</v>
+        <v>0.01191914632336988</v>
       </c>
       <c r="D54">
-        <v>0.01863197479845212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01594094253370493</v>
+      </c>
+      <c r="E54">
+        <v>-0.05226823332675027</v>
+      </c>
+      <c r="F54">
+        <v>0.01464707864737845</v>
+      </c>
+      <c r="G54">
+        <v>0.05815855483797229</v>
+      </c>
+      <c r="H54">
+        <v>0.03611122734204233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1032862952517306</v>
+        <v>-0.1036393722637247</v>
       </c>
       <c r="C55">
-        <v>0.05389914719872899</v>
+        <v>0.02925737175050807</v>
       </c>
       <c r="D55">
-        <v>0.01183754679292813</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03130349586347356</v>
+      </c>
+      <c r="E55">
+        <v>0.0002436373959992258</v>
+      </c>
+      <c r="F55">
+        <v>0.01550617020121411</v>
+      </c>
+      <c r="G55">
+        <v>0.0307616759609845</v>
+      </c>
+      <c r="H55">
+        <v>0.1587969921067124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1486617302543964</v>
+        <v>-0.1560869926687133</v>
       </c>
       <c r="C56">
-        <v>0.0815413392224819</v>
+        <v>0.04647487165790673</v>
       </c>
       <c r="D56">
-        <v>0.0008166073110557351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04470812705059164</v>
+      </c>
+      <c r="E56">
+        <v>0.01467798443361779</v>
+      </c>
+      <c r="F56">
+        <v>0.02252805225822285</v>
+      </c>
+      <c r="G56">
+        <v>0.02954994583707877</v>
+      </c>
+      <c r="H56">
+        <v>0.2089846665458915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1309322201320148</v>
+        <v>-0.09903367552973384</v>
       </c>
       <c r="C58">
-        <v>-0.01318179332067728</v>
+        <v>-0.05790347482515825</v>
       </c>
       <c r="D58">
-        <v>0.05037420123571382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02901524581591792</v>
+      </c>
+      <c r="E58">
+        <v>-0.1251870010917297</v>
+      </c>
+      <c r="F58">
+        <v>0.02993018765559204</v>
+      </c>
+      <c r="G58">
+        <v>-0.07287550618003921</v>
+      </c>
+      <c r="H58">
+        <v>-0.1713300580321439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1185578144133676</v>
+        <v>-0.1462293643981585</v>
       </c>
       <c r="C59">
-        <v>0.07449476853671679</v>
+        <v>0.1299082761204794</v>
       </c>
       <c r="D59">
-        <v>-0.400230613616302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3486971857243306</v>
+      </c>
+      <c r="E59">
+        <v>-0.03786808712204041</v>
+      </c>
+      <c r="F59">
+        <v>0.002638889972908013</v>
+      </c>
+      <c r="G59">
+        <v>0.005735398735218757</v>
+      </c>
+      <c r="H59">
+        <v>0.006856460799272448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2093506981995416</v>
+        <v>-0.2390591469574241</v>
       </c>
       <c r="C60">
-        <v>0.09334355756350816</v>
+        <v>0.05662172892092431</v>
       </c>
       <c r="D60">
-        <v>0.008334235965628026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04787782738364164</v>
+      </c>
+      <c r="E60">
+        <v>0.1142835731587876</v>
+      </c>
+      <c r="F60">
+        <v>0.0446907317558809</v>
+      </c>
+      <c r="G60">
+        <v>-0.04439459259445027</v>
+      </c>
+      <c r="H60">
+        <v>-0.1390648019060918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07969358126941684</v>
+        <v>-0.08565635423002237</v>
       </c>
       <c r="C61">
-        <v>0.04460274458778778</v>
+        <v>0.02434041592638854</v>
       </c>
       <c r="D61">
-        <v>0.03200923605176004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04380752174810978</v>
+      </c>
+      <c r="E61">
+        <v>-0.008229337629233203</v>
+      </c>
+      <c r="F61">
+        <v>0.009318126888404537</v>
+      </c>
+      <c r="G61">
+        <v>0.03855422514944919</v>
+      </c>
+      <c r="H61">
+        <v>0.05392269057578197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1328748069776022</v>
+        <v>-0.1374480092406101</v>
       </c>
       <c r="C62">
-        <v>0.06227831678874285</v>
+        <v>0.02845907134696343</v>
       </c>
       <c r="D62">
-        <v>-0.001304585607922666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04578984034836347</v>
+      </c>
+      <c r="E62">
+        <v>0.04597740622115258</v>
+      </c>
+      <c r="F62">
+        <v>-0.01268686481505723</v>
+      </c>
+      <c r="G62">
+        <v>0.05515002798183042</v>
+      </c>
+      <c r="H62">
+        <v>0.2090774425839823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05175549371847592</v>
+        <v>-0.04990255570371992</v>
       </c>
       <c r="C63">
-        <v>0.02531431298604394</v>
+        <v>0.01290632008524365</v>
       </c>
       <c r="D63">
-        <v>0.02679325974026484</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0232416919942937</v>
+      </c>
+      <c r="E63">
+        <v>-0.04128608551455167</v>
+      </c>
+      <c r="F63">
+        <v>-0.000879460139859326</v>
+      </c>
+      <c r="G63">
+        <v>0.03252269184281106</v>
+      </c>
+      <c r="H63">
+        <v>0.03372574668776636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1071614405643294</v>
+        <v>-0.1104524531171894</v>
       </c>
       <c r="C64">
-        <v>0.03702338128366931</v>
+        <v>0.01655717262603055</v>
       </c>
       <c r="D64">
-        <v>0.02008890581002568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02765852664907459</v>
+      </c>
+      <c r="E64">
+        <v>-0.03962477083019581</v>
+      </c>
+      <c r="F64">
+        <v>0.04552797008804515</v>
+      </c>
+      <c r="G64">
+        <v>0.06549683096293872</v>
+      </c>
+      <c r="H64">
+        <v>0.01966852717547906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1254383053727597</v>
+        <v>-0.1300573193146977</v>
       </c>
       <c r="C65">
-        <v>0.0595687309891323</v>
+        <v>0.04155453922248509</v>
       </c>
       <c r="D65">
-        <v>0.01587897555477427</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01580646532649056</v>
+      </c>
+      <c r="E65">
+        <v>0.01015799780295523</v>
+      </c>
+      <c r="F65">
+        <v>0.03492477781387397</v>
+      </c>
+      <c r="G65">
+        <v>0.02990813774244871</v>
+      </c>
+      <c r="H65">
+        <v>-0.1284764948882087</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1479424499142114</v>
+        <v>-0.1503988847653592</v>
       </c>
       <c r="C66">
-        <v>0.07033648067905182</v>
+        <v>0.02720930856978778</v>
       </c>
       <c r="D66">
-        <v>0.0950017945438509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1013962210006954</v>
+      </c>
+      <c r="E66">
+        <v>0.02577748162273641</v>
+      </c>
+      <c r="F66">
+        <v>0.004805414932565083</v>
+      </c>
+      <c r="G66">
+        <v>0.08050341676502974</v>
+      </c>
+      <c r="H66">
+        <v>0.06643215483245815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07747677879479456</v>
+        <v>-0.08596540667399716</v>
       </c>
       <c r="C67">
-        <v>0.01210802930090575</v>
+        <v>-0.002932897964788625</v>
       </c>
       <c r="D67">
-        <v>0.01745803763546958</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03327878329234678</v>
+      </c>
+      <c r="E67">
+        <v>-0.02097927650125844</v>
+      </c>
+      <c r="F67">
+        <v>0.01358290909992361</v>
+      </c>
+      <c r="G67">
+        <v>-0.01144855083780263</v>
+      </c>
+      <c r="H67">
+        <v>0.0200367184770531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05249792156412855</v>
+        <v>-0.06282494389893223</v>
       </c>
       <c r="C68">
-        <v>0.04819087085898573</v>
+        <v>0.0953255879339765</v>
       </c>
       <c r="D68">
-        <v>-0.2581689627100893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2565826660589725</v>
+      </c>
+      <c r="E68">
+        <v>-0.04797290523404673</v>
+      </c>
+      <c r="F68">
+        <v>0.01399440376914509</v>
+      </c>
+      <c r="G68">
+        <v>0.001846966409637799</v>
+      </c>
+      <c r="H68">
+        <v>0.02151866611377977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05340239255176696</v>
+        <v>-0.05204830289614095</v>
       </c>
       <c r="C69">
-        <v>0.01868265723905745</v>
+        <v>0.003711334441622869</v>
       </c>
       <c r="D69">
-        <v>0.02343482448222465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01999001792671727</v>
+      </c>
+      <c r="E69">
+        <v>-0.0240235987438642</v>
+      </c>
+      <c r="F69">
+        <v>-0.01249966806663681</v>
+      </c>
+      <c r="G69">
+        <v>0.001640684601801901</v>
+      </c>
+      <c r="H69">
+        <v>0.04476308519343829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004140630109346347</v>
+        <v>-0.02843498925781898</v>
       </c>
       <c r="C70">
-        <v>-0.005709870397529504</v>
+        <v>-0.00153458894480489</v>
       </c>
       <c r="D70">
-        <v>-0.01183360430831723</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006809233197461076</v>
+      </c>
+      <c r="E70">
+        <v>0.02460969271422803</v>
+      </c>
+      <c r="F70">
+        <v>-0.008246948062746475</v>
+      </c>
+      <c r="G70">
+        <v>-0.02860830998637464</v>
+      </c>
+      <c r="H70">
+        <v>-0.03704070989968425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05163239663806476</v>
+        <v>-0.06985646516355368</v>
       </c>
       <c r="C71">
-        <v>0.04976624065703043</v>
+        <v>0.1083621447994012</v>
       </c>
       <c r="D71">
-        <v>-0.2914433351791857</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2849861367891148</v>
+      </c>
+      <c r="E71">
+        <v>-0.04847914061713576</v>
+      </c>
+      <c r="F71">
+        <v>0.03998591958455801</v>
+      </c>
+      <c r="G71">
+        <v>0.0008474958996916565</v>
+      </c>
+      <c r="H71">
+        <v>0.01608494055397026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1419548535210716</v>
+        <v>-0.1442648810231669</v>
       </c>
       <c r="C72">
-        <v>0.06374545513811261</v>
+        <v>0.03403889633183683</v>
       </c>
       <c r="D72">
-        <v>-0.01268441232840468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00549890285701331</v>
+      </c>
+      <c r="E72">
+        <v>0.04779705528858266</v>
+      </c>
+      <c r="F72">
+        <v>-0.1605853763300371</v>
+      </c>
+      <c r="G72">
+        <v>0.1104831814499546</v>
+      </c>
+      <c r="H72">
+        <v>-0.009777517869700686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2866070882069505</v>
+        <v>-0.2881241107285589</v>
       </c>
       <c r="C73">
-        <v>0.09661562209055624</v>
+        <v>0.01787197542731241</v>
       </c>
       <c r="D73">
-        <v>0.03978327759764799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09731137834403569</v>
+      </c>
+      <c r="E73">
+        <v>0.2586558459623095</v>
+      </c>
+      <c r="F73">
+        <v>0.07008908093398016</v>
+      </c>
+      <c r="G73">
+        <v>-0.2780482041474935</v>
+      </c>
+      <c r="H73">
+        <v>-0.3757088739895127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0836055244132303</v>
+        <v>-0.09252690373627229</v>
       </c>
       <c r="C74">
-        <v>0.07561402906286646</v>
+        <v>0.05256657050855194</v>
       </c>
       <c r="D74">
-        <v>0.002590592650078581</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04067098247624262</v>
+      </c>
+      <c r="E74">
+        <v>0.00540215805710569</v>
+      </c>
+      <c r="F74">
+        <v>-0.001573010689689214</v>
+      </c>
+      <c r="G74">
+        <v>-0.02045113280615331</v>
+      </c>
+      <c r="H74">
+        <v>0.1361166734452389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.100061932792858</v>
+        <v>-0.1020789153153159</v>
       </c>
       <c r="C75">
-        <v>0.04762088850758806</v>
+        <v>0.01905041120688866</v>
       </c>
       <c r="D75">
-        <v>0.01044565154290576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02693356269331153</v>
+      </c>
+      <c r="E75">
+        <v>0.000812055153290422</v>
+      </c>
+      <c r="F75">
+        <v>0.0009231053880782718</v>
+      </c>
+      <c r="G75">
+        <v>0.0001281213384864661</v>
+      </c>
+      <c r="H75">
+        <v>0.1003716660175922</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1316159572227008</v>
+        <v>-0.1416819584174898</v>
       </c>
       <c r="C76">
-        <v>0.07592884733660757</v>
+        <v>0.0452344663974498</v>
       </c>
       <c r="D76">
-        <v>0.02499039774967419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05516392501036248</v>
+      </c>
+      <c r="E76">
+        <v>-0.01093835571391922</v>
+      </c>
+      <c r="F76">
+        <v>0.03141090626490295</v>
+      </c>
+      <c r="G76">
+        <v>0.03160022365660983</v>
+      </c>
+      <c r="H76">
+        <v>0.2280690682647134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1189253598698754</v>
+        <v>-0.1014636402002985</v>
       </c>
       <c r="C77">
-        <v>0.02768188200598179</v>
+        <v>-0.01076691375313089</v>
       </c>
       <c r="D77">
-        <v>0.09135662463623759</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04387384664405877</v>
+      </c>
+      <c r="E77">
+        <v>-0.03671762187707663</v>
+      </c>
+      <c r="F77">
+        <v>0.07327325675023323</v>
+      </c>
+      <c r="G77">
+        <v>0.7769702220370224</v>
+      </c>
+      <c r="H77">
+        <v>-0.3941763780122433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1083333037319607</v>
+        <v>-0.1533563765634596</v>
       </c>
       <c r="C78">
-        <v>0.04255857338736538</v>
+        <v>0.0331768603060516</v>
       </c>
       <c r="D78">
-        <v>0.08746896162463789</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07925272522225686</v>
+      </c>
+      <c r="E78">
+        <v>-0.05779573095261298</v>
+      </c>
+      <c r="F78">
+        <v>0.05323879665855591</v>
+      </c>
+      <c r="G78">
+        <v>0.03627023464664289</v>
+      </c>
+      <c r="H78">
+        <v>-0.07854025273595039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1444331609310878</v>
+        <v>-0.1459988163409591</v>
       </c>
       <c r="C79">
-        <v>0.07035128240142968</v>
+        <v>0.03227299223887099</v>
       </c>
       <c r="D79">
-        <v>0.02159880433866377</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04584699038419745</v>
+      </c>
+      <c r="E79">
+        <v>0.01499051288485036</v>
+      </c>
+      <c r="F79">
+        <v>0.01517846045257354</v>
+      </c>
+      <c r="G79">
+        <v>0.03210109132792702</v>
+      </c>
+      <c r="H79">
+        <v>0.1652792759250362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04104402712531276</v>
+        <v>-0.04230665899317043</v>
       </c>
       <c r="C80">
-        <v>0.01824810424723101</v>
+        <v>0.009760243618032504</v>
       </c>
       <c r="D80">
-        <v>0.02945217300525498</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01202778127947638</v>
+      </c>
+      <c r="E80">
+        <v>0.03941349705120016</v>
+      </c>
+      <c r="F80">
+        <v>0.007598606204227753</v>
+      </c>
+      <c r="G80">
+        <v>-0.01286222695863645</v>
+      </c>
+      <c r="H80">
+        <v>0.03488951397591705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1223706274755414</v>
+        <v>-0.1238756129520579</v>
       </c>
       <c r="C81">
-        <v>0.05938767295164964</v>
+        <v>0.02948891049257908</v>
       </c>
       <c r="D81">
-        <v>0.02692648982946912</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03195982132586459</v>
+      </c>
+      <c r="E81">
+        <v>-0.006113350326265477</v>
+      </c>
+      <c r="F81">
+        <v>0.01614168157924405</v>
+      </c>
+      <c r="G81">
+        <v>0.005486070106909952</v>
+      </c>
+      <c r="H81">
+        <v>0.1444384017212138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1338173743673677</v>
+        <v>-0.1314003059164814</v>
       </c>
       <c r="C82">
-        <v>0.06860231451761488</v>
+        <v>0.0363965494629523</v>
       </c>
       <c r="D82">
-        <v>0.0004444681280467731</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03677280838133827</v>
+      </c>
+      <c r="E82">
+        <v>0.0234578642226385</v>
+      </c>
+      <c r="F82">
+        <v>0.03987677830844096</v>
+      </c>
+      <c r="G82">
+        <v>0.01882512240810321</v>
+      </c>
+      <c r="H82">
+        <v>0.2230307954537854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06077215113165031</v>
+        <v>-0.07743202943872408</v>
       </c>
       <c r="C83">
-        <v>-0.03265916347115334</v>
+        <v>-0.04099454188815878</v>
       </c>
       <c r="D83">
-        <v>0.02246639904304515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01615030066728203</v>
+      </c>
+      <c r="E83">
+        <v>-0.01469045877530199</v>
+      </c>
+      <c r="F83">
+        <v>0.03075469979734035</v>
+      </c>
+      <c r="G83">
+        <v>-0.0480235879162869</v>
+      </c>
+      <c r="H83">
+        <v>-0.03952012360175405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02572576963461879</v>
+        <v>-0.0313089216896097</v>
       </c>
       <c r="C84">
-        <v>0.0229409331698081</v>
+        <v>0.01030260545223864</v>
       </c>
       <c r="D84">
-        <v>0.04138664492515069</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04144375978812736</v>
+      </c>
+      <c r="E84">
+        <v>-0.01819703552225532</v>
+      </c>
+      <c r="F84">
+        <v>-0.03438803700663842</v>
+      </c>
+      <c r="G84">
+        <v>-0.02613595073116534</v>
+      </c>
+      <c r="H84">
+        <v>0.02753067163970118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1182326842343215</v>
+        <v>-0.1219195652043474</v>
       </c>
       <c r="C85">
-        <v>0.04089769417887544</v>
+        <v>0.01292635430815016</v>
       </c>
       <c r="D85">
-        <v>0.05030106496617637</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04115955967724395</v>
+      </c>
+      <c r="E85">
+        <v>-0.0187183353780161</v>
+      </c>
+      <c r="F85">
+        <v>0.03401062195140793</v>
+      </c>
+      <c r="G85">
+        <v>0.00207208310422727</v>
+      </c>
+      <c r="H85">
+        <v>0.146196168588195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05334146792859872</v>
+        <v>-0.05616512069769228</v>
       </c>
       <c r="C86">
-        <v>0.02449838106736899</v>
+        <v>0.008193305465729517</v>
       </c>
       <c r="D86">
-        <v>0.06417049732808461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03324841694630978</v>
+      </c>
+      <c r="E86">
+        <v>-0.04092297012170575</v>
+      </c>
+      <c r="F86">
+        <v>0.02486036828420016</v>
+      </c>
+      <c r="G86">
+        <v>-0.03799220824735771</v>
+      </c>
+      <c r="H86">
+        <v>-0.05233869457087748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1239362295534762</v>
+        <v>-0.1262676569003552</v>
       </c>
       <c r="C87">
-        <v>0.07532223057285077</v>
+        <v>0.03295800051725004</v>
       </c>
       <c r="D87">
-        <v>0.07151236264795593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07165294154072264</v>
+      </c>
+      <c r="E87">
+        <v>-0.0194513651995192</v>
+      </c>
+      <c r="F87">
+        <v>0.02541763157544601</v>
+      </c>
+      <c r="G87">
+        <v>0.1474288186517011</v>
+      </c>
+      <c r="H87">
+        <v>-0.07889919996799172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05433263732694424</v>
+        <v>-0.06273767784310615</v>
       </c>
       <c r="C88">
-        <v>0.03195440293446355</v>
+        <v>0.01782976587492523</v>
       </c>
       <c r="D88">
-        <v>0.02631939738729021</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0413371850403003</v>
+      </c>
+      <c r="E88">
+        <v>-0.002982351393175319</v>
+      </c>
+      <c r="F88">
+        <v>0.02023219444966804</v>
+      </c>
+      <c r="G88">
+        <v>0.01143634862132624</v>
+      </c>
+      <c r="H88">
+        <v>0.0406101126522725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08179232628431268</v>
+        <v>-0.1070270804162113</v>
       </c>
       <c r="C89">
-        <v>0.0687738912787956</v>
+        <v>0.1357814391167788</v>
       </c>
       <c r="D89">
-        <v>-0.3186647216120457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3350850874395475</v>
+      </c>
+      <c r="E89">
+        <v>-0.061852442843842</v>
+      </c>
+      <c r="F89">
+        <v>0.06873680380702649</v>
+      </c>
+      <c r="G89">
+        <v>-0.02243133034192666</v>
+      </c>
+      <c r="H89">
+        <v>0.01470261045663989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06207851276527541</v>
+        <v>-0.08238330398583676</v>
       </c>
       <c r="C90">
-        <v>0.05687825624086841</v>
+        <v>0.1101944951381161</v>
       </c>
       <c r="D90">
-        <v>-0.2806128856283622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2759205367986369</v>
+      </c>
+      <c r="E90">
+        <v>-0.05627883488457443</v>
+      </c>
+      <c r="F90">
+        <v>0.02989525740634072</v>
+      </c>
+      <c r="G90">
+        <v>0.02926249848504933</v>
+      </c>
+      <c r="H90">
+        <v>-0.01899313828247888</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08944289932271357</v>
+        <v>-0.08975869581394419</v>
       </c>
       <c r="C91">
-        <v>0.04874557371520096</v>
+        <v>0.02183196308376972</v>
       </c>
       <c r="D91">
-        <v>0.01419145472455076</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03401531329240087</v>
+      </c>
+      <c r="E91">
+        <v>-0.00555741784203437</v>
+      </c>
+      <c r="F91">
+        <v>0.003950862596088565</v>
+      </c>
+      <c r="G91">
+        <v>-0.01406467776523601</v>
+      </c>
+      <c r="H91">
+        <v>0.09041408456538445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06694510588032013</v>
+        <v>-0.08449271171503352</v>
       </c>
       <c r="C92">
-        <v>0.06596485247696746</v>
+        <v>0.1274372883542526</v>
       </c>
       <c r="D92">
-        <v>-0.3339702804465745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.323153764006228</v>
+      </c>
+      <c r="E92">
+        <v>-0.05273899623965061</v>
+      </c>
+      <c r="F92">
+        <v>0.0352687461740985</v>
+      </c>
+      <c r="G92">
+        <v>0.005692958381975843</v>
+      </c>
+      <c r="H92">
+        <v>0.01782986188167061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05802284631797832</v>
+        <v>-0.08081469331026493</v>
       </c>
       <c r="C93">
-        <v>0.062050970799824</v>
+        <v>0.1225528487279138</v>
       </c>
       <c r="D93">
-        <v>-0.2989666298437236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2912522951190563</v>
+      </c>
+      <c r="E93">
+        <v>-0.02935875529189667</v>
+      </c>
+      <c r="F93">
+        <v>0.03004585017996814</v>
+      </c>
+      <c r="G93">
+        <v>0.01627393953938578</v>
+      </c>
+      <c r="H93">
+        <v>0.003682426517146246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1341705896511471</v>
+        <v>-0.1285843089862557</v>
       </c>
       <c r="C94">
-        <v>0.04258799989790368</v>
+        <v>0.004961047875999854</v>
       </c>
       <c r="D94">
-        <v>0.03916100734780222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0478281310264814</v>
+      </c>
+      <c r="E94">
+        <v>0.019291265475816</v>
+      </c>
+      <c r="F94">
+        <v>0.01809692143410783</v>
+      </c>
+      <c r="G94">
+        <v>-0.02793793727893374</v>
+      </c>
+      <c r="H94">
+        <v>0.1097091568831599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1204488702785322</v>
+        <v>-0.1286195144361314</v>
       </c>
       <c r="C95">
-        <v>0.01754855351793345</v>
+        <v>-0.01114580142453377</v>
       </c>
       <c r="D95">
-        <v>0.05527535622937177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05553382133107682</v>
+      </c>
+      <c r="E95">
+        <v>-0.002891381263353235</v>
+      </c>
+      <c r="F95">
+        <v>0.05041597132320985</v>
+      </c>
+      <c r="G95">
+        <v>0.02856679619911841</v>
+      </c>
+      <c r="H95">
+        <v>-0.1129683735939606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2194768418675848</v>
+        <v>-0.1943245064769541</v>
       </c>
       <c r="C97">
-        <v>0.03724844103004138</v>
+        <v>-0.01488529635631584</v>
       </c>
       <c r="D97">
-        <v>-0.1069389666767116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06386749582181256</v>
+      </c>
+      <c r="E97">
+        <v>0.06313297104890615</v>
+      </c>
+      <c r="F97">
+        <v>-0.9361819551927926</v>
+      </c>
+      <c r="G97">
+        <v>0.0561540426917304</v>
+      </c>
+      <c r="H97">
+        <v>-0.02632618690640164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2407057075562863</v>
+        <v>-0.27267372980549</v>
       </c>
       <c r="C98">
-        <v>0.05110640341500606</v>
+        <v>0.00955240418304323</v>
       </c>
       <c r="D98">
-        <v>0.01191390252171457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04012675171522946</v>
+      </c>
+      <c r="E98">
+        <v>0.2051968345079829</v>
+      </c>
+      <c r="F98">
+        <v>0.04419802017553589</v>
+      </c>
+      <c r="G98">
+        <v>-0.3311042283648698</v>
+      </c>
+      <c r="H98">
+        <v>-0.175602550188786</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4110063327548716</v>
+        <v>-0.2622220858358309</v>
       </c>
       <c r="C99">
-        <v>-0.8924301026243379</v>
+        <v>-0.9093690148957633</v>
       </c>
       <c r="D99">
-        <v>-0.05604899162436821</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2589098732437045</v>
+      </c>
+      <c r="E99">
+        <v>-0.07133138409182108</v>
+      </c>
+      <c r="F99">
+        <v>0.0798475730251543</v>
+      </c>
+      <c r="G99">
+        <v>0.01979768355451078</v>
+      </c>
+      <c r="H99">
+        <v>0.07354887811374153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04451173754220311</v>
+        <v>-0.04727132324077978</v>
       </c>
       <c r="C101">
-        <v>0.03161916859022381</v>
+        <v>0.02247340394708879</v>
       </c>
       <c r="D101">
-        <v>0.004963402295760064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01429252063347185</v>
+      </c>
+      <c r="E101">
+        <v>-0.05461279828748678</v>
+      </c>
+      <c r="F101">
+        <v>0.01214127542664588</v>
+      </c>
+      <c r="G101">
+        <v>0.009273521433975872</v>
+      </c>
+      <c r="H101">
+        <v>0.07079878963949779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
